--- a/Sujeto_9/Carbohidrates.xlsx
+++ b/Sujeto_9/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4E549F-E56B-694D-8356-E7062D3A9504}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A73B1FC-A68F-ED46-B235-2FDDD813EEE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>Value (g)</t>
+  </si>
+  <si>
+    <t>25.8</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>43.2</t>
+  </si>
+  <si>
+    <t>31.2</t>
+  </si>
+  <si>
+    <t>27.2</t>
+  </si>
+  <si>
+    <t>46.7</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>55.1</t>
+  </si>
+  <si>
+    <t>161.1</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>23.1</t>
+  </si>
+  <si>
+    <t>50.2</t>
+  </si>
+  <si>
+    <t>40.3</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>30.3</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>16.8</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>12.7</t>
+  </si>
+  <si>
+    <t>17.2</t>
+  </si>
+  <si>
+    <t>14.4</t>
   </si>
 </sst>
 </file>
@@ -434,7 +527,7 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,48 +547,48 @@
       <c r="A2" s="2">
         <v>44469.708333333343</v>
       </c>
-      <c r="B2">
-        <v>25.8</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44470.375</v>
       </c>
-      <c r="B3">
-        <v>4.5</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44470.541666666657</v>
       </c>
-      <c r="B4">
-        <v>8.6999999999999993</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44470.722222222219</v>
       </c>
-      <c r="B5">
-        <v>9.1</v>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44470.791666666657</v>
       </c>
-      <c r="B6">
-        <v>45.5</v>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44470.819444444453</v>
       </c>
-      <c r="B7">
-        <v>6.7</v>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -510,56 +603,56 @@
       <c r="A9" s="2">
         <v>44471.024305555547</v>
       </c>
-      <c r="B9">
-        <v>6.8</v>
+      <c r="B9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44471.0625</v>
       </c>
-      <c r="B10">
-        <v>43.2</v>
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44471.104166666657</v>
       </c>
-      <c r="B11">
-        <v>31.2</v>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44471.496527777781</v>
       </c>
-      <c r="B12">
-        <v>27.2</v>
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44471.555555555547</v>
       </c>
-      <c r="B13">
-        <v>46.7</v>
+      <c r="B13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44471.565972222219</v>
       </c>
-      <c r="B14">
-        <v>9.1999999999999993</v>
+      <c r="B14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44471.65625</v>
       </c>
-      <c r="B15">
-        <v>55.1</v>
+      <c r="B15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -590,48 +683,48 @@
       <c r="A19" s="2">
         <v>44472.4375</v>
       </c>
-      <c r="B19">
-        <v>161.1</v>
+      <c r="B19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44472.576388888891</v>
       </c>
-      <c r="B20">
-        <v>35.5</v>
+      <c r="B20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44472.666666666657</v>
       </c>
-      <c r="B21">
-        <v>23.1</v>
+      <c r="B21" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44472.75</v>
       </c>
-      <c r="B22">
-        <v>50.2</v>
+      <c r="B22" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44472.822916666657</v>
       </c>
-      <c r="B23">
-        <v>40.299999999999997</v>
+      <c r="B23" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44472.927083333343</v>
       </c>
-      <c r="B24">
-        <v>29.5</v>
+      <c r="B24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -646,40 +739,40 @@
       <c r="A26" s="2">
         <v>44473.333333333343</v>
       </c>
-      <c r="B26">
-        <v>23.1</v>
+      <c r="B26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44473.472222222219</v>
       </c>
-      <c r="B27">
-        <v>12.8</v>
+      <c r="B27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44473.534722222219</v>
       </c>
-      <c r="B28">
-        <v>12.8</v>
+      <c r="B28" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44473.572916666657</v>
       </c>
-      <c r="B29">
-        <v>4.8</v>
+      <c r="B29" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44473.770833333343</v>
       </c>
-      <c r="B30">
-        <v>14.1</v>
+      <c r="B30" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -694,32 +787,32 @@
       <c r="A32" s="2">
         <v>44473.927083333343</v>
       </c>
-      <c r="B32">
-        <v>30.3</v>
+      <c r="B32" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44473.941666666673</v>
       </c>
-      <c r="B33">
-        <v>6.3</v>
+      <c r="B33" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44473.975694444453</v>
       </c>
-      <c r="B34">
-        <v>13.1</v>
+      <c r="B34" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44474.243055555547</v>
       </c>
-      <c r="B35">
-        <v>16.8</v>
+      <c r="B35" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -734,64 +827,64 @@
       <c r="A37" s="2">
         <v>44474.493055555547</v>
       </c>
-      <c r="B37">
-        <v>12.8</v>
+      <c r="B37" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44474.5</v>
       </c>
-      <c r="B38">
-        <v>12.8</v>
+      <c r="B38" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44474.510416666657</v>
       </c>
-      <c r="B39">
-        <v>12.1</v>
+      <c r="B39" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44474.520833333343</v>
       </c>
-      <c r="B40">
-        <v>7.5</v>
+      <c r="B40" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44474.541666666657</v>
       </c>
-      <c r="B41">
-        <v>12.7</v>
+      <c r="B41" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44474.833333333343</v>
       </c>
-      <c r="B42">
-        <v>7.5</v>
+      <c r="B42" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44474.854166666657</v>
       </c>
-      <c r="B43">
-        <v>12.8</v>
+      <c r="B43" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44474.885416666657</v>
       </c>
-      <c r="B44">
-        <v>17.2</v>
+      <c r="B44" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -814,8 +907,8 @@
       <c r="A47" s="2">
         <v>44475.05</v>
       </c>
-      <c r="B47">
-        <v>14.4</v>
+      <c r="B47" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -838,8 +931,8 @@
       <c r="A50" s="2">
         <v>44475.625</v>
       </c>
-      <c r="B50">
-        <v>23.1</v>
+      <c r="B50" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Sujeto_9/Carbohidrates.xlsx
+++ b/Sujeto_9/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A73B1FC-A68F-ED46-B235-2FDDD813EEE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0727BAF1-ACFB-C146-B0BB-A47339F21E0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,9 @@
     <t>6.7</t>
   </si>
   <si>
+    <t>320.0</t>
+  </si>
+  <si>
     <t>6.8</t>
   </si>
   <si>
@@ -67,6 +70,15 @@
     <t>55.1</t>
   </si>
   <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
     <t>161.1</t>
   </si>
   <si>
@@ -85,6 +97,9 @@
     <t>29.5</t>
   </si>
   <si>
+    <t>50.0</t>
+  </si>
+  <si>
     <t>12.8</t>
   </si>
   <si>
@@ -94,6 +109,9 @@
     <t>14.1</t>
   </si>
   <si>
+    <t>13.0</t>
+  </si>
+  <si>
     <t>30.3</t>
   </si>
   <si>
@@ -106,6 +124,9 @@
     <t>16.8</t>
   </si>
   <si>
+    <t>36.0</t>
+  </si>
+  <si>
     <t>12.1</t>
   </si>
   <si>
@@ -118,7 +139,16 @@
     <t>17.2</t>
   </si>
   <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
     <t>14.4</t>
+  </si>
+  <si>
+    <t>23.0</t>
   </si>
 </sst>
 </file>
@@ -526,9 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -595,8 +623,8 @@
       <c r="A8" s="2">
         <v>44470.916666666657</v>
       </c>
-      <c r="B8">
-        <v>320</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -604,7 +632,7 @@
         <v>44471.024305555547</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -612,7 +640,7 @@
         <v>44471.0625</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -620,7 +648,7 @@
         <v>44471.104166666657</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -628,7 +656,7 @@
         <v>44471.496527777781</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -636,7 +664,7 @@
         <v>44471.555555555547</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -644,7 +672,7 @@
         <v>44471.565972222219</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -652,31 +680,31 @@
         <v>44471.65625</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44471.739583333343</v>
       </c>
-      <c r="B16">
-        <v>11</v>
+      <c r="B16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44472.010416666657</v>
       </c>
-      <c r="B17">
-        <v>32</v>
+      <c r="B17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44472.104166666657</v>
       </c>
-      <c r="B18">
-        <v>22</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -684,7 +712,7 @@
         <v>44472.4375</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -692,7 +720,7 @@
         <v>44472.576388888891</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -700,7 +728,7 @@
         <v>44472.666666666657</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -708,7 +736,7 @@
         <v>44472.75</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -716,7 +744,7 @@
         <v>44472.822916666657</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -724,15 +752,15 @@
         <v>44472.927083333343</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44472.9375</v>
       </c>
-      <c r="B25">
-        <v>50</v>
+      <c r="B25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -740,7 +768,7 @@
         <v>44473.333333333343</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -748,7 +776,7 @@
         <v>44473.472222222219</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -756,7 +784,7 @@
         <v>44473.534722222219</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -764,7 +792,7 @@
         <v>44473.572916666657</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -772,15 +800,15 @@
         <v>44473.770833333343</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44473.854166666657</v>
       </c>
-      <c r="B31">
-        <v>13</v>
+      <c r="B31" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -788,7 +816,7 @@
         <v>44473.927083333343</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -796,7 +824,7 @@
         <v>44473.941666666673</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -804,7 +832,7 @@
         <v>44473.975694444453</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -812,15 +840,15 @@
         <v>44474.243055555547</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44474.465277777781</v>
       </c>
-      <c r="B36">
-        <v>36</v>
+      <c r="B36" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -828,7 +856,7 @@
         <v>44474.493055555547</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -836,7 +864,7 @@
         <v>44474.5</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -844,7 +872,7 @@
         <v>44474.510416666657</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -852,7 +880,7 @@
         <v>44474.520833333343</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -860,7 +888,7 @@
         <v>44474.541666666657</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -868,7 +896,7 @@
         <v>44474.833333333343</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -876,7 +904,7 @@
         <v>44474.854166666657</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -884,23 +912,23 @@
         <v>44474.885416666657</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44474.944444444453</v>
       </c>
-      <c r="B45">
-        <v>20</v>
+      <c r="B45" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44475.020833333343</v>
       </c>
-      <c r="B46">
-        <v>7</v>
+      <c r="B46" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -908,23 +936,23 @@
         <v>44475.05</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44475.052083333343</v>
       </c>
-      <c r="B48">
-        <v>20</v>
+      <c r="B48" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44475.4375</v>
       </c>
-      <c r="B49">
-        <v>23</v>
+      <c r="B49" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -932,7 +960,7 @@
         <v>44475.625</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
